--- a/tonal_IM_speech_IM_visual_crowding_new_balanced_VC exp2/summarized_results.xlsx
+++ b/tonal_IM_speech_IM_visual_crowding_new_balanced_VC exp2/summarized_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Subject</t>
   </si>
@@ -25,9 +25,6 @@
     <t>VC (experiment 3)</t>
   </si>
   <si>
-    <t>noise IM</t>
-  </si>
-  <si>
     <t>tonal IM</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
   </si>
   <si>
     <t>Tone detection threshold</t>
+  </si>
+  <si>
+    <t>ERB[Hz] (experiment 1)</t>
+  </si>
+  <si>
+    <t>noise EM</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +208,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,76 +532,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A23"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="3">
         <v>0.3</v>
       </c>
@@ -612,33 +636,39 @@
         <v>1.5</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>56.614583333333336</v>
@@ -688,10 +718,16 @@
       <c r="Q4" s="1">
         <v>1.3386145514016854</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <v>137.71659887903635</v>
+      </c>
+      <c r="S4" s="1">
+        <v>187.83455372237424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>63.125</v>
@@ -741,10 +777,16 @@
       <c r="Q5" s="1">
         <v>0.77207956360108909</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <v>194.54110361615972</v>
+      </c>
+      <c r="S5" s="1">
+        <v>836.39718160277448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>56.5625</v>
@@ -794,10 +836,16 @@
       <c r="Q6" s="1">
         <v>3.3405799085251875</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <v>175.49950995894247</v>
+      </c>
+      <c r="S6" s="1">
+        <v>209.875100143022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>58.90625</v>
@@ -847,10 +895,16 @@
       <c r="Q7" s="1">
         <v>0.52201082695095735</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <v>138.32473263279533</v>
+      </c>
+      <c r="S7" s="1">
+        <v>406.26098646937811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>55.130208333333336</v>
@@ -900,10 +954,16 @@
       <c r="Q8" s="1">
         <v>0.49659996504672133</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <v>165.10849626941621</v>
+      </c>
+      <c r="S8" s="1">
+        <v>147.1832924455978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>57.03125</v>
@@ -953,10 +1013,16 @@
       <c r="Q9" s="1">
         <v>1.8545562386872174</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <v>161.54165365635097</v>
+      </c>
+      <c r="S9" s="1">
+        <v>201.9837769761896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>56.145833333333336</v>
@@ -1006,10 +1072,16 @@
       <c r="Q10" s="1">
         <v>2.3469443802812107</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>193.66185922163942</v>
+      </c>
+      <c r="S10" s="1">
+        <v>309.87356297426498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>51.614583333333336</v>
@@ -1059,10 +1131,16 @@
       <c r="Q11" s="1">
         <v>1.0170595904845345</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <v>198.76618880014834</v>
+      </c>
+      <c r="S11" s="1">
+        <v>218.5631575475808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>58.90625</v>
@@ -1112,10 +1190,16 @@
       <c r="Q12" s="1">
         <v>1.9423671176772739</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <v>170.3020877159326</v>
+      </c>
+      <c r="S12" s="1">
+        <v>434.26981943737246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>48.90625</v>
@@ -1165,10 +1249,16 @@
       <c r="Q13" s="1">
         <v>1.6518621937382001</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <v>158.14167560496193</v>
+      </c>
+      <c r="S13" s="1">
+        <v>124.94000043611472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>55.130208333333336</v>
@@ -1218,10 +1308,16 @@
       <c r="Q14" s="1">
         <v>0.48586140838857661</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <v>153.6496529616519</v>
+      </c>
+      <c r="S14" s="1">
+        <v>346.76905309928304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>51.588541666666664</v>
@@ -1271,10 +1367,16 @@
       <c r="Q15" s="1">
         <v>0.88795304633466521</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <v>159.29814235782408</v>
+      </c>
+      <c r="S15" s="1">
+        <v>299.19174215750274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>52.057291666666664</v>
@@ -1324,10 +1426,16 @@
       <c r="Q16" s="1">
         <v>2.0776461646032169</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <v>221.70109664306784</v>
+      </c>
+      <c r="S16" s="1">
+        <v>209.50388340475152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>56.822916666666664</v>
@@ -1377,10 +1485,16 @@
       <c r="Q17" s="1">
         <v>0.328148377414617</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>147.61226556775884</v>
+      </c>
+      <c r="S17" s="1">
+        <v>323.42086663778906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>50.833333333333336</v>
@@ -1430,10 +1544,16 @@
       <c r="Q18" s="1">
         <v>2.1545797164597884</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>241.0550133924782</v>
+      </c>
+      <c r="S18" s="1">
+        <v>253.63944465527692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>57.526041666666664</v>
@@ -1483,10 +1603,16 @@
       <c r="Q19" s="1">
         <v>2.3737055591637346</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>184.53658948768216</v>
+      </c>
+      <c r="S19" s="1">
+        <v>127.2854281838606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>56.354166666666664</v>
@@ -1536,10 +1662,16 @@
       <c r="Q20" s="1">
         <v>1.7838331962507128</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <v>185.65421089419632</v>
+      </c>
+      <c r="S20" s="1">
+        <v>282.56256326605666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>54.010416666666664</v>
@@ -1589,10 +1721,16 @@
       <c r="Q21" s="1">
         <v>0.31307307777339854</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>329.34891638205659</v>
+      </c>
+      <c r="S21" s="1">
+        <v>13.069089760693249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
         <v>56.979166666666664</v>
@@ -1642,10 +1780,16 @@
       <c r="Q22" s="1">
         <v>0.68363347618261172</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <v>178.02246079032295</v>
+      </c>
+      <c r="S22" s="1">
+        <v>304.35147035573215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>58.28125</v>
@@ -1695,9 +1839,16 @@
       <c r="Q23" s="1">
         <v>1.7639476291139382</v>
       </c>
+      <c r="R23" s="1">
+        <v>198.56813538731217</v>
+      </c>
+      <c r="S23" s="1">
+        <v>282.44329895437659</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="R1:S2"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="L1:N2"/>
     <mergeCell ref="O1:Q2"/>
